--- a/DATA_goal/Junction_Flooding_71.xlsx
+++ b/DATA_goal/Junction_Flooding_71.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41503.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41503.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.15</v>
+        <v>1.72</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.66</v>
+        <v>0.87</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>87.09</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.88</v>
+        <v>1.69</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41503.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>80.51000000000001</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.17</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.35</v>
+        <v>2.03</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41503.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.98</v>
+        <v>2.4</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.39</v>
+        <v>3.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>124.08</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.73</v>
+        <v>2.97</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.55</v>
+        <v>0.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41503.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>30.31</v>
+        <v>3.03</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>108.11</v>
+        <v>10.81</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>21.21</v>
+        <v>2.12</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>27.86</v>
+        <v>2.79</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41503.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>22.77</v>
+        <v>2.28</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.37</v>
+        <v>0.44</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>74.95999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.45</v>
+        <v>0.65</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.85</v>
+        <v>0.28</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41503.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>24.17</v>
+        <v>2.42</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>86.40000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>22.08</v>
+        <v>2.21</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41503.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>23.58</v>
+        <v>2.36</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>51.4</v>
+        <v>5.14</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>42.49</v>
+        <v>4.25</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>18.58</v>
+        <v>1.86</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>68.64</v>
+        <v>6.86</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>28.65</v>
+        <v>2.87</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>19.17</v>
+        <v>1.92</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>20.51</v>
+        <v>2.05</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>21.83</v>
+        <v>2.18</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>26.44</v>
+        <v>2.64</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>274.14</v>
+        <v>27.41</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>51.64</v>
+        <v>5.16</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>35.07</v>
+        <v>3.51</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>34.17</v>
+        <v>3.42</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>21.77</v>
+        <v>2.18</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>62.44</v>
+        <v>6.24</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>21.27</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41503.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_71.xlsx
+++ b/DATA_goal/Junction_Flooding_71.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41503.34027777778</v>
+        <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.14</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.06</v>
+        <v>3.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.05</v>
+        <v>2.89</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.36</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.13</v>
+        <v>4.21</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.03</v>
+        <v>2.09</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.86</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.28</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.45</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.04</v>
+        <v>1.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>19.86</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.05</v>
+        <v>3.76</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.04</v>
+        <v>2.45</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.05</v>
+        <v>1.24</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.11</v>
+        <v>2.15</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.01</v>
+        <v>1.01</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.03</v>
+        <v>1.18</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.49</v>
+        <v>3.76</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41503.34722222222</v>
+        <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.68</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.57</v>
+        <v>1.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.72</v>
+        <v>3.64</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.41</v>
+        <v>2.92</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.32</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.77</v>
+        <v>5.05</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.95</v>
+        <v>2.04</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.88</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.29</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.66</v>
+        <v>1.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.73</v>
+        <v>1.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.32</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.69</v>
+        <v>3.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.17</v>
+        <v>2.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.95</v>
+        <v>2.47</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.97</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>1.14</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.75</v>
+        <v>1.52</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.63</v>
+        <v>4.61</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41503.35416666666</v>
+        <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.73</v>
+        <v>1.59</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.6</v>
+        <v>3.44</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.32</v>
+        <v>2.78</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.17</v>
+        <v>4.89</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.89</v>
+        <v>1.92</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.84</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.23</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.62</v>
+        <v>1.38</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.68</v>
+        <v>1.45</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.82</v>
+        <v>1.76</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.46</v>
+        <v>1.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>18.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.61</v>
+        <v>3.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.52</v>
+        <v>1.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.11</v>
+        <v>2.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.59</v>
+        <v>1.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.11</v>
+        <v>2.36</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.47</v>
+        <v>1.01</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.7</v>
+        <v>1.44</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.03</v>
+        <v>4.46</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.64</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.65</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41503.36111111111</v>
+        <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.62</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.97</v>
+        <v>2.68</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41503.36805555555</v>
+        <v>44781.95137731481</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.96</v>
+        <v>3.36</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.72</v>
+        <v>2.25</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.55</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.11</v>
+        <v>7.29</v>
       </c>
       <c r="F6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>1.74</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.51</v>
-      </c>
       <c r="K6" s="4" t="n">
-        <v>0.78</v>
+        <v>2.38</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.83</v>
+        <v>2.93</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.9</v>
+        <v>3.04</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.75</v>
+        <v>2.63</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.08</v>
+        <v>3.71</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.62</v>
+        <v>2.41</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>10.81</v>
+        <v>32.77</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.12</v>
+        <v>7.56</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.43</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.45</v>
+        <v>4.93</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.76</v>
+        <v>2.51</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.48</v>
+        <v>6.27</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.62</v>
+        <v>2.15</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.53</v>
+        <v>2.01</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.65</v>
+        <v>2.34</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.9</v>
+        <v>3.04</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.79</v>
+        <v>12.79</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.4</v>
+        <v>1.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41503.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41503.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41503.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>27.41</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41503.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41503.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>31.76</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>40.64</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>166.76</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>31.76</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>36.55</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>13.12</v>
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_71.xlsx
+++ b/DATA_goal/Junction_Flooding_71.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.21</v>
+        <v>42.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.86</v>
+        <v>198.65</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.76</v>
+        <v>37.58</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.45</v>
+        <v>24.54</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.51</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.76</v>
+        <v>37.61</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.64</v>
+        <v>36.41</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.05</v>
+        <v>50.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.35</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.3</v>
+        <v>192.97</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.44</v>
+        <v>24.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.47</v>
+        <v>24.7</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.37</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.61</v>
+        <v>46.14</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.44</v>
+        <v>34.42</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.78</v>
+        <v>27.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.89</v>
+        <v>48.93</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.34</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.8</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.49</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.56</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.15</v>
+        <v>181.53</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.72</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.14</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.08</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.36</v>
+        <v>23.63</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.46</v>
+        <v>44.56</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.5</v>
+        <v>14.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.92</v>
+        <v>29.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.57</v>
+        <v>95.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.9</v>
+        <v>19.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.78</v>
       </c>
       <c r="AA5" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_71.xlsx
+++ b/DATA_goal/Junction_Flooding_71.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44781.92361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.3</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.41</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.99</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.82</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.93</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.61</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.1</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.85</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.48</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.03</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.34</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.8</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.39</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.65</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.58</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.54</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.43</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.15</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.51</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.83</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.03</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.61</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.76</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.93055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.91</v>
+        <v>11.908</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.825</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.41</v>
+        <v>36.414</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.19</v>
+        <v>29.189</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.23</v>
+        <v>13.233</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.52</v>
+        <v>50.519</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.804</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.91</v>
+        <v>12.914</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.57</v>
+        <v>14.566</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.24</v>
+        <v>15.239</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.54</v>
+        <v>18.544</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.35</v>
+        <v>11.349</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.097</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.97</v>
+        <v>192.972</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.82</v>
+        <v>36.816</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.4</v>
+        <v>24.398</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>12.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.39</v>
+        <v>2.392</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.7</v>
+        <v>24.699</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.69</v>
+        <v>9.692</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.37</v>
+        <v>11.374</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>15.19</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.14</v>
+        <v>46.143</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.69</v>
+        <v>6.691</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.9375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.44</v>
+        <v>11.442</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.303</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.42</v>
+        <v>34.419</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.79</v>
+        <v>27.785</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.48</v>
+        <v>12.477</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>48.93</v>
+        <v>48.934</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.4</v>
+        <v>8.404999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.34</v>
+        <v>12.339</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.8</v>
+        <v>13.802</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.49</v>
+        <v>14.492</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.99</v>
+        <v>3.986</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.56</v>
+        <v>17.557</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.62</v>
+        <v>10.621</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.032</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>181.53</v>
+        <v>181.527</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.72</v>
+        <v>34.718</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.14</v>
+        <v>23.137</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.08</v>
+        <v>12.079</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.07</v>
+        <v>2.069</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.63</v>
+        <v>23.633</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.073</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.65</v>
+        <v>10.652</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.44</v>
+        <v>14.436</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.56</v>
+        <v>44.556</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.36</v>
+        <v>6.357</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_71.xlsx
+++ b/DATA_goal/Junction_Flooding_71.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.65</v>
+        <v>8.648</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.15</v>
+        <v>6.151</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.846</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.77</v>
+        <v>18.773</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.99</v>
+        <v>14.989</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.81</v>
+        <v>6.806</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.23</v>
+        <v>29.226</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.47</v>
+        <v>10.471</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.56</v>
+        <v>4.555</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>6.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.53</v>
+        <v>7.533</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.89</v>
+        <v>7.893</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.18</v>
+        <v>2.176</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.88</v>
+        <v>5.881</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.493</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.69</v>
+        <v>95.693</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.04</v>
+        <v>19.039</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>12.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.55</v>
+        <v>6.555</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.218</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.78</v>
+        <v>13.783</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.99</v>
+        <v>4.995</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.86</v>
+        <v>5.855</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>7.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.77</v>
+        <v>26.773</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.42</v>
+        <v>3.425</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.95137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_71.xlsx
+++ b/DATA_goal/Junction_Flooding_71.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44781.94444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.648</v>
+        <v>8.65</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.151</v>
+        <v>6.15</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.846</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.773</v>
+        <v>18.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.989</v>
+        <v>14.99</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.806</v>
+        <v>6.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.226</v>
+        <v>29.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.471</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.555</v>
+        <v>4.56</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>6.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.533</v>
+        <v>7.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.893</v>
+        <v>7.89</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.176</v>
+        <v>2.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.767</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.558</v>
+        <v>9.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.881</v>
+        <v>5.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.493</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.693</v>
+        <v>95.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19.039</v>
+        <v>19.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.247</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>12.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.555</v>
+        <v>6.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.218</v>
+        <v>1.22</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.783</v>
+        <v>13.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.517</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.995</v>
+        <v>4.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.855</v>
+        <v>5.86</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>7.87</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.773</v>
+        <v>26.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.425</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>7.81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.95137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.74</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.04</v>
       </c>
     </row>
   </sheetData>
